--- a/web_crawler/selenium-test/ant-learn-spider-master/案例/网易云课堂套餐课爬虫/网易云课堂的套餐课信息.xlsx
+++ b/web_crawler/selenium-test/ant-learn-spider-master/案例/网易云课堂套餐课爬虫/网易云课堂的套餐课信息.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1070"/>
+  <dimension ref="A1:I1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45259,21 +45259,21 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
         <is>
-          <t>为什么要学习推荐系统</t>
+          <t>推荐系统包含哪些环节</t>
         </is>
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>07:17</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="I1043" t="n">
-        <v>437</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1044">
@@ -45302,21 +45302,21 @@
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G1044" t="inlineStr">
         <is>
-          <t>推荐系统包含哪些环节</t>
+          <t>推荐系统有哪些召回路径</t>
         </is>
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:16</t>
         </is>
       </c>
       <c r="I1044" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1045">
@@ -45345,21 +45345,21 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
         <is>
-          <t>推荐系统有哪些召回路径</t>
+          <t>Netflix经典的推荐系统技术架构</t>
         </is>
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>06:16</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="I1045" t="n">
-        <v>376</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1046">
@@ -45388,21 +45388,21 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G1046" t="inlineStr">
         <is>
-          <t>Netflix经典的推荐系统技术架构</t>
+          <t>推荐系统通用技术架构</t>
         </is>
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="I1046" t="n">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1047">
@@ -45431,21 +45431,21 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G1047" t="inlineStr">
         <is>
-          <t>推荐系统通用技术架构</t>
+          <t>怎样实现基于内容的推荐系统</t>
         </is>
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>07:24</t>
+          <t>06:58</t>
         </is>
       </c>
       <c r="I1047" t="n">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1048">
@@ -45474,21 +45474,21 @@
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G1048" t="inlineStr">
         <is>
-          <t>怎样实现基于内容的推荐系统</t>
+          <t>怎样实现基于协同过滤的推荐系统</t>
         </is>
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>06:58</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="I1048" t="n">
-        <v>418</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1049">
@@ -45517,21 +45517,21 @@
       </c>
       <c r="F1049" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G1049" t="inlineStr">
         <is>
-          <t>怎样实现基于协同过滤的推荐系统</t>
+          <t>推荐系统怎样实现多路召回的融合排序</t>
         </is>
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="I1049" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1050">
@@ -45560,21 +45560,21 @@
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G1050" t="inlineStr">
         <is>
-          <t>推荐系统怎样实现多路召回的融合排序</t>
+          <t>推荐系统怎样实现AB测试</t>
         </is>
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="I1050" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1051">
@@ -45603,21 +45603,21 @@
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G1051" t="inlineStr">
         <is>
-          <t>推荐系统怎样实现AB测试</t>
+          <t>推荐系统怎样实现内容相似推荐</t>
         </is>
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="I1051" t="n">
-        <v>460</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1052">
@@ -45646,21 +45646,21 @@
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G1052" t="inlineStr">
         <is>
-          <t>推荐系统怎样实现内容相似推荐</t>
+          <t>推荐系统怎样实现用户聚类推荐</t>
         </is>
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>06:15</t>
         </is>
       </c>
       <c r="I1052" t="n">
-        <v>717</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1053">
@@ -45689,21 +45689,21 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
         <is>
-          <t>推荐系统怎样实现用户聚类推荐</t>
+          <t>推荐系统怎样实现矩阵分解的推荐</t>
         </is>
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="I1053" t="n">
-        <v>375</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1054">
@@ -45732,21 +45732,21 @@
       </c>
       <c r="F1054" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G1054" t="inlineStr">
         <is>
-          <t>推荐系统怎样实现矩阵分解的推荐</t>
+          <t>推荐系统的API接口长什么样子</t>
         </is>
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="I1054" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1055">
@@ -45775,21 +45775,21 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>推荐系统的API接口长什么样子</t>
+          <t>推荐系统怎样解决物品的冷启动问题</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="I1055" t="n">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1056">
@@ -45818,21 +45818,21 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>推荐系统怎样解决物品的冷启动问题</t>
+          <t>当今推荐系统极其重要的Embedding技术</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="I1056" t="n">
-        <v>454</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1057">
@@ -45861,21 +45861,21 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>当今推荐系统极其重要的Embedding技术</t>
+          <t>推荐系统依赖数据源与特征工程</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="I1057" t="n">
-        <v>879</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1058">
@@ -45904,21 +45904,21 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>推荐系统依赖数据源与特征工程</t>
+          <t>接入一个推荐系统需要哪些步骤</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>03:57</t>
         </is>
       </c>
       <c r="I1058" t="n">
-        <v>482</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1059">
@@ -45947,21 +45947,21 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>接入一个推荐系统需要哪些步骤</t>
+          <t>推荐系统开发所需要的技术环境</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>03:57</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="I1059" t="n">
-        <v>237</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1060">
@@ -45990,21 +45990,21 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>推荐系统开发所需要的技术环境</t>
+          <t>Python使用flask实现推荐系统在线API</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="I1060" t="n">
-        <v>490</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1061">
@@ -46033,21 +46033,21 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>Python使用flask实现推荐系统在线API</t>
+          <t>Python实现基于标签的推荐系统</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="I1061" t="n">
-        <v>612</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1062">
@@ -46076,21 +46076,21 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>Python实现基于标签的推荐系统</t>
+          <t>Python使用SparkALS矩阵分解实现电影推荐</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="I1062" t="n">
-        <v>484</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1063">
@@ -46119,21 +46119,21 @@
       </c>
       <c r="F1063" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>Python使用SparkALS矩阵分解实现电影推荐</t>
+          <t>Python训练item2vec实现电影相关推荐</t>
         </is>
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="I1063" t="n">
-        <v>621</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1064">
@@ -46162,21 +46162,21 @@
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>Python训练item2vec实现电影相关推荐</t>
+          <t>使用腾讯开源Word2vec实现内容相似推荐</t>
         </is>
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="I1064" t="n">
-        <v>554</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1065">
@@ -46205,21 +46205,21 @@
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G1065" t="inlineStr">
         <is>
-          <t>使用腾讯开源Word2vec实现内容相似推荐</t>
+          <t>PySpark训练word2vec实现内容相似推荐</t>
         </is>
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="I1065" t="n">
-        <v>421</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1066">
@@ -46248,21 +46248,21 @@
       </c>
       <c r="F1066" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>PySpark训练word2vec实现内容相似推荐</t>
+          <t>Python使用Faiss实现向量近邻搜索</t>
         </is>
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="I1066" t="n">
-        <v>619</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1067">
@@ -46291,21 +46291,21 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>Python使用Faiss实现向量近邻搜索</t>
+          <t>Tensorflow使用LR和GBDT和DNN实现二分类排序算法</t>
         </is>
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="I1067" t="n">
-        <v>483</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1068">
@@ -46334,21 +46334,21 @@
       </c>
       <c r="F1068" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G1068" t="inlineStr">
         <is>
-          <t>Tensorflow使用LR和GBDT和DNN实现二分类排序算法</t>
+          <t>Tensorflow2实现双塔DNN排序模型</t>
         </is>
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="I1068" t="n">
-        <v>694</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1069">
@@ -46377,63 +46377,20 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>Tensorflow2实现双塔DNN排序模型</t>
+          <t>推荐系统技能升级之论文阅读</t>
         </is>
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="I1069" t="n">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="n">
-        <v>19</v>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>推荐系统从入门到实战</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr">
-        <is>
-          <t>https://study.163.com/course/introduction.htm?courseId=1212113815#/courseDetail?tab=1</t>
-        </is>
-      </c>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr">
-        <is>
-          <t>298.00</t>
-        </is>
-      </c>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>推荐系统技能升级之论文阅读</t>
-        </is>
-      </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>09:15</t>
-        </is>
-      </c>
-      <c r="I1070" t="n">
         <v>555</v>
       </c>
     </row>
